--- a/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-1.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-1.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>5250 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>2794.26</t>
+          <t>2794.26 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>4937 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>2794.81</t>
+          <t>2794.81 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>5237</t>
+          <t>5237 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>2795.52</t>
+          <t>2795.52 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>5222 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>2794.28</t>
+          <t>2794.28 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5138 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>2794.26</t>
+          <t>2794.26 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>5432 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>2800.70</t>
+          <t>2800.70 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5253</t>
+          <t>5253 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2796.86</t>
+          <t>2796.86 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>5342</t>
+          <t>5342 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>2794.74</t>
+          <t>2794.74 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>5341</t>
+          <t>5341 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2794.81</t>
+          <t>2794.81 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5253</t>
+          <t>5253 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2794.33</t>
+          <t>2794.33 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>5202 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2794.22</t>
+          <t>2794.22 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5131</t>
+          <t>5131 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2794.22</t>
+          <t>2794.22 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>5232 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>2796.98</t>
+          <t>2796.98 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>5244 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>2794.25</t>
+          <t>2794.25 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5230 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2794.31</t>
+          <t>2794.31 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>89 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>5130</t>
+          <t>5130 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2794.27</t>
+          <t>2794.27 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>352 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>5111 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2843.98</t>
+          <t>2843.98 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>112 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>5227</t>
+          <t>5227 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2794.22</t>
+          <t>2794.22 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>5348</t>
+          <t>5348 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>2794.75</t>
+          <t>2794.75 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>431 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>5297 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2840.08</t>
+          <t>2840.08 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>5242</t>
+          <t>5242 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2794.18</t>
+          <t>2794.18 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
